--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб2_Гордов_В.Т..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб2_Гордов_В.Т..xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908FF05-20CC-430E-9CDB-FBB1C73DFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Зарплата" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Зарплата">Зарплата!$A$1:$F$8</definedName>
-    <definedName name="Итого_надбавка">Зарплата!$E$8</definedName>
-    <definedName name="Итого_оклад">Зарплата!$D$8</definedName>
-    <definedName name="Надбавки">Зарплата!$E$2:$E$7</definedName>
-    <definedName name="Оклады">Зарплата!$D$2:$D$7</definedName>
-    <definedName name="Суммы">Зарплата!$F$2:$F$7</definedName>
+    <definedName name="Зарплата">Лист2!$A$1:$F$8</definedName>
+    <definedName name="Итого_надбавка">Лист2!$E$8</definedName>
+    <definedName name="Итого_оклад">Лист2!$D$8</definedName>
+    <definedName name="Надбавки">Лист2!$E$2:$E$7</definedName>
+    <definedName name="Оклады">Лист2!$D$2:$D$7</definedName>
+    <definedName name="Суммы">Лист2!$F$2:$F$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>Надбавка</t>
   </si>
@@ -242,20 +254,171 @@
   </si>
   <si>
     <t>Викторович</t>
+  </si>
+  <si>
+    <t>Сбыт</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Кадров</t>
+  </si>
+  <si>
+    <t>Маметов</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Петрова</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>Чарушин</t>
+  </si>
+  <si>
+    <t>Семен</t>
+  </si>
+  <si>
+    <t>Максимович</t>
+  </si>
+  <si>
+    <t>Яровцева</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>Суммы окладов</t>
+  </si>
+  <si>
+    <t>Кол-во сотрудников</t>
+  </si>
+  <si>
+    <t>&gt;6000</t>
+  </si>
+  <si>
+    <t>Прибыль/убытки</t>
+  </si>
+  <si>
+    <t>Магазин 1</t>
+  </si>
+  <si>
+    <t>Магазин 2</t>
+  </si>
+  <si>
+    <t>Магазин 3</t>
+  </si>
+  <si>
+    <t>Магазин 4</t>
+  </si>
+  <si>
+    <t>Магазин 5</t>
+  </si>
+  <si>
+    <t>Квартал 1</t>
+  </si>
+  <si>
+    <t>Квартал 2</t>
+  </si>
+  <si>
+    <t>Квартал 3</t>
+  </si>
+  <si>
+    <t>Квартал 4</t>
+  </si>
+  <si>
+    <t>Поступило/Реализовано</t>
+  </si>
+  <si>
+    <t>Склад 1</t>
+  </si>
+  <si>
+    <t>Склад 2</t>
+  </si>
+  <si>
+    <t>Склад 3</t>
+  </si>
+  <si>
+    <t>Склад 4</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>учет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +468,22 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -476,15 +655,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -495,19 +675,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -550,29 +724,130 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% — акцент4" xfId="4" builtinId="43"/>
     <cellStyle name="40% — акцент6" xfId="5" builtinId="51"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="3" builtinId="27"/>
     <cellStyle name="Процентный" xfId="2" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -597,7 +872,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -901,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -917,32 +1198,32 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -953,19 +1234,19 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>0.05</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>0.1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>0.15</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0.25</v>
       </c>
     </row>
@@ -973,26 +1254,26 @@
       <c r="A4" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>560</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>C$3*$B4</f>
         <v>28</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:G9" si="0">D$3*$B4</f>
         <v>56</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1001,26 +1282,26 @@
       <c r="A5" s="3">
         <v>11</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>603</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f t="shared" ref="C5:C9" si="1">C$3*$B5</f>
         <v>30.150000000000002</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>60.300000000000004</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>90.45</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>120.60000000000001</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>150.75</v>
       </c>
@@ -1029,26 +1310,26 @@
       <c r="A6" s="3">
         <v>12</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>650</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>162.5</v>
       </c>
@@ -1057,26 +1338,26 @@
       <c r="A7" s="3">
         <v>13</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>765</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>38.25</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>114.75</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>191.25</v>
       </c>
@@ -1085,26 +1366,26 @@
       <c r="A8" s="3">
         <v>14</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>820</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -1113,26 +1394,26 @@
       <c r="A9" s="3">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>971</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <f t="shared" si="1"/>
         <v>48.550000000000004</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>97.100000000000009</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>145.65</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>194.20000000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>242.75</v>
       </c>
@@ -1147,11 +1428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,307 +1446,228 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>17</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>11</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <f>Лист1!B5</f>
         <v>603</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <f>D2*Лист1!E3</f>
         <v>90.45</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <f>E2+D2</f>
         <v>693.45</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="27" t="e">
-        <f>Зарплата!$A$1:$F$8</f>
+      <c r="I2" s="25" t="e">
+        <f>Лист2!$A$1:$F$8</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>12</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <f>Лист1!B6</f>
         <v>650</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <f>D3*Лист1!D3</f>
         <v>65</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F7" si="0">E3+D3</f>
         <v>715</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="22">
-        <f>Зарплата!$E$8</f>
+      <c r="I3" s="20">
+        <f>Лист2!$E$8</f>
         <v>520.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f>Лист1!B4</f>
         <v>560</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <f>D4*Лист1!C3</f>
         <v>28</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>588</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="22">
-        <f>Зарплата!$D$8</f>
+      <c r="I4" s="20">
+        <f>Лист2!$D$8</f>
         <v>4109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>20</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>13</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>Лист1!B7</f>
         <v>765</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f>D5*Лист1!E3</f>
         <v>114.75</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>879.75</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22">
-        <f>Зарплата!$E$2:$E$7</f>
+      <c r="I5" s="20">
+        <f>Лист2!$E$2:$E$7</f>
         <v>114.75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>Лист1!B4</f>
         <v>560</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f>D6*Лист1!C3</f>
         <v>28</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>588</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="22">
-        <f>Зарплата!$D$2:$D$7</f>
+      <c r="I6" s="20">
+        <f>Лист2!$D$2:$D$7</f>
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>25</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>15</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f>Лист1!B9</f>
         <v>971</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f>D7*Лист1!F3</f>
         <v>194.20000000000002</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>1165.2</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="24">
-        <f>Зарплата!$F$2:$F$7</f>
+      <c r="I7" s="22">
+        <f>Лист2!$F$2:$F$7</f>
         <v>1165.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <f>SUM(D2:D7)</f>
         <v>4109</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f>SUM(E2:E7)</f>
         <v>520.4</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <f>SUM(Суммы)</f>
         <v>4629.3999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,11 +1680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,39 +1696,31 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="30">
         <v>150000</v>
       </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>5.5E-2</v>
       </c>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1536,18 +1730,18 @@
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>149823</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <f>IF($B6&lt;$B1,$B6*$B$2,$B6*$B$3)</f>
         <v>8240.2649999999994</v>
       </c>
@@ -1555,14 +1749,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <v>162023</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <f t="shared" ref="C7:C14" si="0">IF($B7&lt;$B2,$B7*$B$2,$B7*$B$3)</f>
         <v>12151.725</v>
       </c>
@@ -1571,38 +1765,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>209123</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <f t="shared" si="0"/>
         <v>15684.224999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>122354</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <f t="shared" si="0"/>
         <v>9176.5499999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>83351</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <f t="shared" si="0"/>
         <v>4584.3050000000003</v>
       </c>
@@ -1610,14 +1804,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="27">
         <v>204861</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <f t="shared" si="0"/>
         <v>15364.574999999999</v>
       </c>
@@ -1625,14 +1819,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>150000</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <f t="shared" si="0"/>
         <v>8250</v>
       </c>
@@ -1641,44 +1835,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>110500</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <f t="shared" si="0"/>
         <v>6077.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <v>220120</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <f t="shared" si="0"/>
         <v>16509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="27">
         <v>170450</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <f>IF($B15&lt;$B10,$B15*$B$2,$B15*$B$3)</f>
         <v>12783.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="29"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1690,10 +1881,10 @@
       <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1702,13 +1893,13 @@
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>16350</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f>SUMIF(B21:B32,E21,C21:C32)</f>
         <v>127502</v>
       </c>
@@ -1720,13 +1911,13 @@
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>14586</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" ref="F22:F24" si="1">SUMIF(B22:B33,E22,C22:C33)</f>
         <v>57111</v>
       </c>
@@ -1738,13 +1929,13 @@
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>26874</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
         <v>134039</v>
       </c>
@@ -1756,13 +1947,13 @@
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>8541</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <f t="shared" si="1"/>
         <v>22119</v>
       </c>
@@ -1774,13 +1965,13 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>96574</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="31">
         <f>SUM(F21:F24)</f>
         <v>340771</v>
       </c>
@@ -1792,7 +1983,7 @@
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>6584</v>
       </c>
     </row>
@@ -1803,7 +1994,7 @@
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>32584</v>
       </c>
     </row>
@@ -1814,13 +2005,13 @@
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>7894</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1829,13 +2020,13 @@
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>14578</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <f>SUMIF(A21:A32,E29,C21:C32)</f>
         <v>55492</v>
       </c>
@@ -1847,13 +2038,13 @@
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>35941</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <f t="shared" ref="F30:F31" si="2">SUMIF(A22:A33,E30,C22:C33)</f>
         <v>70289</v>
       </c>
@@ -1865,13 +2056,13 @@
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>74581</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <f t="shared" si="2"/>
         <v>214990</v>
       </c>
@@ -1883,23 +2074,23 @@
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>5684</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="31">
         <f>SUM(F29:F31)</f>
         <v>340771</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="31">
         <f>SUM(C21:C32)</f>
         <v>340771</v>
       </c>
@@ -1909,78 +2100,806 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E28:F28"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:B15">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>150000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>150000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>150000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="35">
         <v>5730</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="35">
+        <f>IF(E2&gt;5000,E2*$G$2,E2*$G$3)</f>
+        <v>1146</v>
+      </c>
+      <c r="G2" s="36">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G3">
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="35">
+        <v>6250</v>
+      </c>
+      <c r="F3" s="35">
+        <f t="shared" ref="F3:F11" si="0">IF(E3&gt;5000,E3*$G$2,E3*$G$3)</f>
+        <v>1250</v>
+      </c>
+      <c r="G3" s="36">
         <v>0.15</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="35">
+        <v>4890</v>
+      </c>
+      <c r="F4" s="35">
+        <f t="shared" si="0"/>
+        <v>733.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="35">
+        <v>5800</v>
+      </c>
+      <c r="F5" s="35">
+        <f t="shared" si="0"/>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="35">
+        <v>6520</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6250</v>
+      </c>
+      <c r="F7" s="35">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="35">
+        <v>5730</v>
+      </c>
+      <c r="F8" s="35">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="35">
+        <v>4970</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="0"/>
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="35">
+        <v>5940</v>
+      </c>
+      <c r="F10" s="35">
+        <f t="shared" si="0"/>
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="35">
+        <v>5730</v>
+      </c>
+      <c r="F11" s="35">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="40">
+        <f>SUM(E2:E11)</f>
+        <v>57810</v>
+      </c>
+      <c r="F12" s="40">
+        <f>SUM(F2:F11)</f>
+        <v>11069</v>
+      </c>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1">
+        <f>COUNTIF($D$2:$D$11,A15)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUMIF(D$2:D$11,D15,E$2:E$11)</f>
+        <v>17980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:B18" si="1">COUNTIF($D$2:$D$11,A16)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:E18" si="2">SUMIF(D$2:D$11,D16,E$2:E$11)</f>
+        <v>11980</v>
+      </c>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>16630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(E15:E18)</f>
+        <v>57810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1">
+        <f>COUNTIF($E$2:$E$11,A20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1">
+        <f>COUNTIF(B$2:B$11,A21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="37"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0430C3E3-569A-4ED6-ADC7-A40E1457051F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="41">
+        <v>45000</v>
+      </c>
+      <c r="C3" s="41">
+        <v>35000</v>
+      </c>
+      <c r="D3" s="41">
+        <v>-1000</v>
+      </c>
+      <c r="E3" s="41">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="41">
+        <v>-50000</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>-35000</v>
+      </c>
+      <c r="E4" s="41">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="41">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="41">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="41">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="41">
+        <v>-10000</v>
+      </c>
+      <c r="C6" s="41">
+        <v>-24000</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="41">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="41">
+        <v>0</v>
+      </c>
+      <c r="C7" s="41">
+        <v>-3000</v>
+      </c>
+      <c r="D7" s="41">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="B3:E7">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>-2000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>30000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B75EC33-8087-406F-B58A-ACBC6EBC422D}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="35">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="35">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>25000</v>
+      </c>
+      <c r="E4" s="35">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="35">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="35">
+        <v>17000</v>
+      </c>
+      <c r="D5" s="35">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>-4000</v>
+      </c>
+      <c r="D6" s="35">
+        <v>-2000</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="35">
+        <v>-22500</v>
+      </c>
+      <c r="C7" s="35">
+        <v>-3000</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3500</v>
+      </c>
+      <c r="E7" s="35">
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="35">
+        <v>-32000</v>
+      </c>
+      <c r="C8" s="35">
+        <v>5400</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="35">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="35">
+        <v>41500</v>
+      </c>
+      <c r="C9" s="35">
+        <v>-2300</v>
+      </c>
+      <c r="D9" s="35">
+        <v>-100</v>
+      </c>
+      <c r="E9" s="35">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="35">
+        <v>51000</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="35">
+        <v>-1900</v>
+      </c>
+      <c r="E10" s="35">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-9060</v>
+      </c>
+      <c r="D11" s="35">
+        <v>-3700</v>
+      </c>
+      <c r="E11" s="35">
+        <v>-23500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="35">
+        <v>-17000</v>
+      </c>
+      <c r="C12" s="35">
+        <v>11980</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="35">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="35">
+        <v>-9500</v>
+      </c>
+      <c r="C13" s="35">
+        <v>14900</v>
+      </c>
+      <c r="D13" s="35">
+        <v>-7300</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="35">
+        <v>9000</v>
+      </c>
+      <c r="C14" s="35">
+        <v>-17820</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>-34000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>